--- a/S2022_Tests/ASS_00_Dim_Testing/StudentFolder/Ex.3/ExcelExtract.xlsx
+++ b/S2022_Tests/ASS_00_Dim_Testing/StudentFolder/Ex.3/ExcelExtract.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zacha\OneDrive\Desktop\Ualberta Summer 2022 Co-op\SolidWorks\AutoMARK\AutoMARK_V6\S2022_Tests\ASS_00_Dim_Testing\StudentFolder\Ex.3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AE278E16-48BA-46A7-8DE5-F7282E849BF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A650C367-A720-4F1A-B729-1A93F865FE8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="953" yWindow="2847" windowWidth="13120" windowHeight="7660" xr2:uid="{E60E66F4-1AA9-47F5-8A7D-F0CF1B7B13DB}"/>
+    <workbookView xWindow="953" yWindow="2847" windowWidth="13120" windowHeight="7660" xr2:uid="{16FAF50F-9A71-45DE-B97D-0BC9EA3F7DFE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1406,7 +1406,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B438061-164E-4DDE-A351-410AEA08554C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E92BC59-690F-44CF-BC44-A831DDA6B896}">
   <dimension ref="A1:AS125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/S2022_Tests/ASS_00_Dim_Testing/StudentFolder/Ex.3/ExcelExtract.xlsx
+++ b/S2022_Tests/ASS_00_Dim_Testing/StudentFolder/Ex.3/ExcelExtract.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zacha\OneDrive\Desktop\Ualberta Summer 2022 Co-op\SolidWorks\AutoMARK\AutoMARK_V6\S2022_Tests\ASS_00_Dim_Testing\StudentFolder\Ex.3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A650C367-A720-4F1A-B729-1A93F865FE8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{94E15B42-B6A2-4329-9026-A4267CE96B9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="953" yWindow="2847" windowWidth="13120" windowHeight="7660" xr2:uid="{16FAF50F-9A71-45DE-B97D-0BC9EA3F7DFE}"/>
+    <workbookView xWindow="953" yWindow="2847" windowWidth="13120" windowHeight="7660" xr2:uid="{23D066E8-7375-421F-9606-FB8D000AD490}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1406,7 +1406,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E92BC59-690F-44CF-BC44-A831DDA6B896}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EA7EE89-3746-4B68-8FBE-60D5C7BE5722}">
   <dimension ref="A1:AS125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/S2022_Tests/ASS_00_Dim_Testing/StudentFolder/Ex.3/ExcelExtract.xlsx
+++ b/S2022_Tests/ASS_00_Dim_Testing/StudentFolder/Ex.3/ExcelExtract.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zacha\OneDrive\Desktop\Ualberta Summer 2022 Co-op\SolidWorks\AutoMARK\AutoMARK_V6\S2022_Tests\ASS_00_Dim_Testing\StudentFolder\Ex.3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{94E15B42-B6A2-4329-9026-A4267CE96B9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3436B43A-8EF5-4063-84EC-DE02CED5F39B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="953" yWindow="2847" windowWidth="13120" windowHeight="7660" xr2:uid="{23D066E8-7375-421F-9606-FB8D000AD490}"/>
+    <workbookView xWindow="3247" yWindow="327" windowWidth="7513" windowHeight="7800" xr2:uid="{1D42B845-0EAC-4BCA-A734-F87EA7B3D5FB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1406,7 +1406,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EA7EE89-3746-4B68-8FBE-60D5C7BE5722}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0077956-EC87-4E4C-8517-C0E11665BE39}">
   <dimension ref="A1:AS125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/S2022_Tests/ASS_00_Dim_Testing/StudentFolder/Ex.3/ExcelExtract.xlsx
+++ b/S2022_Tests/ASS_00_Dim_Testing/StudentFolder/Ex.3/ExcelExtract.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zacha\OneDrive\Desktop\Ualberta Summer 2022 Co-op\SolidWorks\AutoMARK\AutoMARK_V6\S2022_Tests\ASS_00_Dim_Testing\StudentFolder\Ex.3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3436B43A-8EF5-4063-84EC-DE02CED5F39B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF77C813-E5EE-4ACC-AD33-E855A6EA177C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3247" yWindow="327" windowWidth="7513" windowHeight="7800" xr2:uid="{1D42B845-0EAC-4BCA-A734-F87EA7B3D5FB}"/>
+    <workbookView xWindow="3587" yWindow="667" windowWidth="7513" windowHeight="7800" xr2:uid="{5834A623-DFBD-4489-85C2-758B0B923B39}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1406,7 +1406,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0077956-EC87-4E4C-8517-C0E11665BE39}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC595599-F491-4335-BDDE-7136474D3DD1}">
   <dimension ref="A1:AS125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/S2022_Tests/ASS_00_Dim_Testing/StudentFolder/Ex.3/ExcelExtract.xlsx
+++ b/S2022_Tests/ASS_00_Dim_Testing/StudentFolder/Ex.3/ExcelExtract.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zacha\OneDrive\Desktop\Ualberta Summer 2022 Co-op\SolidWorks\AutoMARK\AutoMARK_V6\S2022_Tests\ASS_00_Dim_Testing\StudentFolder\Ex.3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF77C813-E5EE-4ACC-AD33-E855A6EA177C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{333E6D58-99AF-455D-A348-9E6BC5E9BF05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3587" yWindow="667" windowWidth="7513" windowHeight="7800" xr2:uid="{5834A623-DFBD-4489-85C2-758B0B923B39}"/>
+    <workbookView xWindow="13" yWindow="4847" windowWidth="24860" windowHeight="7800" xr2:uid="{780A6CFF-328C-4BB1-B0C0-5878E118AF62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1406,7 +1406,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC595599-F491-4335-BDDE-7136474D3DD1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DBBC6EB-96D7-458A-97E2-4B6F108A240B}">
   <dimension ref="A1:AS125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -6535,7 +6535,7 @@
         <v>2</v>
       </c>
       <c r="F74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G74">
         <v>1</v>
@@ -6648,7 +6648,7 @@
         <v>2</v>
       </c>
       <c r="F75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G75">
         <v>1</v>
@@ -8556,7 +8556,7 @@
         <v>2</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G96">
         <v>1</v>

--- a/S2022_Tests/ASS_00_Dim_Testing/StudentFolder/Ex.3/ExcelExtract.xlsx
+++ b/S2022_Tests/ASS_00_Dim_Testing/StudentFolder/Ex.3/ExcelExtract.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zacha\OneDrive\Desktop\Ualberta Summer 2022 Co-op\SolidWorks\AutoMARK\AutoMARK_V6\S2022_Tests\ASS_00_Dim_Testing\StudentFolder\Ex.3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{333E6D58-99AF-455D-A348-9E6BC5E9BF05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6142FCCB-8965-4A69-8149-4E7C649169AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13" yWindow="4847" windowWidth="24860" windowHeight="7800" xr2:uid="{780A6CFF-328C-4BB1-B0C0-5878E118AF62}"/>
+    <workbookView xWindow="13" yWindow="4847" windowWidth="24860" windowHeight="7800" xr2:uid="{FC62C71D-EA8F-423E-BD68-847ED589670D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1406,7 +1406,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DBBC6EB-96D7-458A-97E2-4B6F108A240B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{893367BB-2D1B-4BAF-BCE4-1A93FB1C746A}">
   <dimension ref="A1:AS125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
